--- a/data/trans_dic/P22$concerEmp-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,4</t>
+          <t>1,16; 3,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,43</t>
+          <t>0,53; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,62</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,15</t>
+          <t>0,34; 2,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,45</t>
+          <t>0,14; 1,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,07</t>
+          <t>0,17; 1,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,76</t>
+          <t>0,59; 1,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,48</t>
+          <t>0,5; 1,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,87</t>
+          <t>0,07; 0,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,25</t>
+          <t>0,32; 1,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,78</t>
+          <t>1,64; 3,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,31</t>
+          <t>0,74; 2,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,51</t>
+          <t>0,24; 1,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,07</t>
+          <t>0,42; 2,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,02</t>
+          <t>0,12; 1,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,17</t>
+          <t>0,18; 1,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,67</t>
+          <t>0,07; 0,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,21</t>
+          <t>1,04; 2,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,23</t>
+          <t>0,4; 1,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,09</t>
+          <t>0,3; 1,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,29</t>
+          <t>0,36; 1,27</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,97</t>
+          <t>1,63; 4,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,06</t>
+          <t>0,87; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,25</t>
+          <t>0,59; 2,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,88</t>
+          <t>0,39; 1,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,61</t>
+          <t>0,05; 0,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,7</t>
+          <t>1,15; 2,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,59</t>
+          <t>0,53; 1,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,24</t>
+          <t>0,29; 1,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,67</t>
+          <t>1,03; 2,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,11</t>
+          <t>0,2; 1,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,63</t>
+          <t>0,31; 1,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,75</t>
+          <t>1,44; 3,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,19</t>
+          <t>0,3; 1,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,15</t>
+          <t>0,19; 1,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,12</t>
+          <t>0,18; 1,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,22</t>
+          <t>0,83; 2,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,72</t>
+          <t>0,75; 1,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,93</t>
+          <t>0,29; 0,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,11</t>
+          <t>0,34; 1,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,47</t>
+          <t>1,31; 2,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,85</t>
+          <t>1,8; 2,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,62</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,95</t>
+          <t>0,34; 0,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,91</t>
+          <t>0,97; 1,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,85</t>
+          <t>0,33; 0,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>0,2; 0,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>0,19; 0,59</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,59</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,96</t>
+          <t>0,43; 0,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,7</t>
+          <t>1,12; 1,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,99</t>
+          <t>0,55; 1,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,7</t>
+          <t>0,32; 0,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,29</t>
+          <t>0,79; 1,29</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado por su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13993</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8592</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2740</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5381</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14958</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12589</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4502</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8019; 23018</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3704; 16725</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11121</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2154; 13224</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5084</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9918</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6213</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1180; 7167</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8116; 24687</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6966; 21909</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>952; 11740</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4205; 18478</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25037</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13708</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6728</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12913</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5202</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2717</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29428</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14680</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11930</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15629</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15774; 37227</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7475; 24114</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2421; 15833</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5034; 26062</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1152; 10844</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5824</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1907; 11240</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>659; 6513</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20092; 42234</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8250; 25598</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6191; 22181</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7739; 27253</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17800</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12166</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2768</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6362</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24162</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14326</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2768</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10790</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11018; 27554</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6625; 23180</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9530</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4123; 17558</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2650; 12754</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7640</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>466; 6216</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15611; 34654</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8146; 25362</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9592</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4781; 19349</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16505</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4921</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21668</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6501</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5823</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15304</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23005</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10869</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12735</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36972</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9687; 25006</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1940; 10932</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2917; 14980</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13382; 34883</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3091; 14077</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2022; 12017</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1929; 11889</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9103; 24494</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14928; 32427</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5775; 18827</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6811; 21833</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26427; 50582</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>73335</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39387</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19148</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>48766</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18219</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13076</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12787</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23200</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>91553</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>52463</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31935</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71966</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>58910; 91539</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27146; 53641</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11358; 31139</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33658; 66724</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11173; 28937</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7093; 22154</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6866; 21055</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15751; 33438</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>74200; 112004</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>38600; 70893</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22121; 45723</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>56288; 91591</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>